--- a/Rank_Values2.xlsx
+++ b/Rank_Values2.xlsx
@@ -1,45 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="SC" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="SC_alt" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Coed A" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Coed B" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Coed C" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="W SC" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="Women's A" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="Women's B" sheetId="8" r:id="rId10"/>
+    <sheet name="SC" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="SC_alt" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Coed A" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Coed B" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Coed C" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="W SC" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Women's A" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Women's B" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="2">
   <si>
-    <t>Points</t>
+    <t xml:space="preserve">Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spacer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="10.0"/>
-      <name val="Arial"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -47,1558 +90,1620 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>9.70588235294117</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>9.41176470588235</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>9.11764705882352</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>8.8235294117647</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>8.52941176470588</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>8.23529411764705</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>7.94117647058823</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>7.64705882352941</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>7.35294117647058</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>7.05882352941176</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>6.76470588235294</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>6.47058823529411</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>6.17647058823529</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>5.88235294117647</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>5.58823529411764</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>5.29411764705882</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3">
-        <v>5.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>4.8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>4.51764705882352</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>4.23529411764705</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>3.95294117647058</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>3.67058823529411</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>3.38823529411764</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>3.10588235294117</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>2.8235294117647</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>2.54117647058823</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>2.25882352941176</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>1.97647058823529</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>1.69411764705882</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>1.41176470588235</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>1.12941176470588</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>0.847058823529411</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>0.564705882352941</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>0.28235294117647</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3">
-        <v>0.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>8.585</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4" t="n">
         <v>8.5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>8.4575</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="4" t="n">
         <v>8.415</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="4" t="n">
         <v>8.3725</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="4" t="n">
         <v>8.33</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="4" t="n">
         <v>8.2875</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="4" t="n">
         <v>8.245</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="4" t="n">
         <v>8.2025</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="4" t="n">
         <v>8.16</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="4" t="n">
         <v>8.1175</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="4" t="n">
         <v>8.075</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>8.13315789473684</v>
       </c>
-      <c r="C3" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>7.92890625</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="4" t="n">
         <v>7.85399999999999</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="4" t="n">
         <v>7.77446428571428</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="4" t="n">
         <v>7.68923076923076</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="4" t="n">
         <v>7.596875</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="4" t="n">
         <v>7.49545454545454</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="4" t="n">
         <v>7.38225</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="4" t="n">
         <v>7.25333333333333</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="4" t="n">
         <v>7.1028125</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="4" t="n">
         <v>6.92142857142857</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>7.68131578947368</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="n">
         <v>7.5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>7.4003125</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="4" t="n">
         <v>7.29299999999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="4" t="n">
         <v>7.17642857142857</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="4" t="n">
         <v>7.04846153846153</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="4" t="n">
         <v>6.90625</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="4" t="n">
         <v>6.74590909090909</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="4" t="n">
         <v>6.562</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="4" t="n">
         <v>6.34666666666666</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="4" t="n">
         <v>6.088125</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="4" t="n">
         <v>5.76785714285714</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>7.22947368421052</v>
       </c>
-      <c r="C5" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>6.87171874999999</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="4" t="n">
         <v>6.73199999999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="4" t="n">
         <v>6.57839285714285</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="4" t="n">
         <v>6.4076923076923</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="4" t="n">
         <v>6.21562499999999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="4" t="n">
         <v>5.99636363636363</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="4" t="n">
         <v>5.74175</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="4" t="n">
         <v>5.43999999999999</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="4" t="n">
         <v>5.0734375</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="4" t="n">
         <v>4.61428571428571</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>6.77763157894737</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="n">
         <v>6.5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>6.343125</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="4" t="n">
         <v>6.17099999999999</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="4" t="n">
         <v>5.98035714285714</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="4" t="n">
         <v>5.76692307692307</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="4" t="n">
         <v>5.525</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="4" t="n">
         <v>5.24681818181818</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="4" t="n">
         <v>4.9215</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="4" t="n">
         <v>4.53333333333333</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="4" t="n">
         <v>4.05875</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="4" t="n">
         <v>3.46071428571428</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>6.32578947368421</v>
       </c>
-      <c r="C7" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="n">
         <v>5.81453125</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="4" t="n">
         <v>5.60999999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="4" t="n">
         <v>5.38232142857142</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="4" t="n">
         <v>5.12615384615384</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="4" t="n">
         <v>4.834375</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="4" t="n">
         <v>4.49727272727272</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="4" t="n">
         <v>4.10125</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="4" t="n">
         <v>3.62666666666666</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="4" t="n">
         <v>3.0440625</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="4" t="n">
         <v>2.30714285714285</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>5.87394736842105</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="4" t="n">
         <v>5.5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>5.28593749999999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="4" t="n">
         <v>5.04899999999999</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="4" t="n">
         <v>4.78428571428571</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="4" t="n">
         <v>4.48538461538461</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="4" t="n">
         <v>4.14375</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="4" t="n">
         <v>3.74772727272727</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="4" t="n">
         <v>3.281</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="4" t="n">
         <v>2.71999999999999</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="4" t="n">
         <v>2.029375</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="4" t="n">
         <v>1.15357142857142</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>5.42210526315789</v>
       </c>
-      <c r="C9" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>4.75734374999999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="4" t="n">
         <v>4.48799999999999</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="4" t="n">
         <v>4.18625</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="4" t="n">
         <v>3.84461538461538</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="4" t="n">
         <v>3.453125</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="4" t="n">
         <v>2.99818181818181</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="4" t="n">
         <v>2.46075</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="4" t="n">
         <v>1.81333333333333</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="4" t="n">
         <v>1.0146875</v>
       </c>
-      <c r="M9" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1">
+      <c r="M9" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>4.97026315789473</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="n">
         <v>4.5</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>4.22875</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4" t="n">
         <v>3.92699999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="4" t="n">
         <v>3.58821428571428</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="4" t="n">
         <v>3.20384615384615</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="4" t="n">
         <v>2.7625</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="4" t="n">
         <v>2.24863636363636</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="4" t="n">
         <v>1.6405</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="4" t="n">
         <v>0.906666666666666</v>
       </c>
-      <c r="L10" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1">
+      <c r="L10" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>4.51842105263157</v>
       </c>
-      <c r="C11" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="n">
         <v>3.70015625</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="n">
         <v>3.36599999999999</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="4" t="n">
         <v>2.99017857142857</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="4" t="n">
         <v>2.56307692307692</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="4" t="n">
         <v>2.071875</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="4" t="n">
         <v>1.4990909090909</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="4" t="n">
         <v>0.82025</v>
       </c>
-      <c r="K11" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
+      <c r="K11" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>4.06657894736842</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="4" t="n">
         <v>3.5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="n">
         <v>3.1715625</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="4" t="n">
         <v>2.80499999999999</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="4" t="n">
         <v>2.39214285714285</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="4" t="n">
         <v>1.92230769230769</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="4" t="n">
         <v>1.38125</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="4" t="n">
         <v>0.749545454545454</v>
       </c>
-      <c r="J12" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
+      <c r="J12" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>3.61473684210526</v>
       </c>
-      <c r="C13" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="n">
         <v>2.64296874999999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="n">
         <v>2.24399999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="4" t="n">
         <v>1.79410714285714</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="4" t="n">
         <v>1.28153846153846</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="4" t="n">
         <v>0.690625</v>
       </c>
-      <c r="I13" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
+      <c r="I13" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
         <v>3.1628947368421</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="4" t="n">
         <v>2.5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="n">
         <v>2.114375</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="n">
         <v>1.68299999999999</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="4" t="n">
         <v>1.19607142857142</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="4" t="n">
         <v>0.640769230769231</v>
       </c>
-      <c r="H14" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
+      <c r="H14" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
         <v>2.71105263157894</v>
       </c>
-      <c r="C15" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="n">
         <v>1.58578125</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="4" t="n">
         <v>1.12199999999999</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="4" t="n">
         <v>0.598035714285714</v>
       </c>
-      <c r="G15" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
+      <c r="G15" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
         <v>2.25921052631578</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="4" t="n">
         <v>1.05718749999999</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4" t="n">
         <v>0.560999999999999</v>
       </c>
-      <c r="F16" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
+      <c r="F16" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>1.80736842105263</v>
       </c>
-      <c r="C17" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="n">
         <v>0.528593749999999</v>
       </c>
-      <c r="E17" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
+      <c r="E17" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
         <v>1.35552631578947</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="D18" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
         <v>0.903684210526315</v>
       </c>
-      <c r="C19" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
         <v>0.451842105263157</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>0.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>5.06009999999999</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4" t="n">
         <v>5.01</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>4.98494999999999</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="4" t="n">
         <v>4.9599</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>4.79377894736842</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="n">
         <v>4.71529411764705</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>4.673390625</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="4" t="n">
         <v>4.62924</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>4.52745789473684</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="n">
         <v>4.42058823529411</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>4.36183125</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="4" t="n">
         <v>4.29858</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>4.26113684210526</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="4" t="n">
         <v>4.12588235294117</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>4.050271875</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="4" t="n">
         <v>3.96792</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>3.99481578947368</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="n">
         <v>3.83117647058823</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>3.73871249999999</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="4" t="n">
         <v>3.63726</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>3.7284947368421</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="4" t="n">
         <v>3.53647058823529</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>3.427153125</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="4" t="n">
         <v>3.3066</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
         <v>3.46217368421052</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="4" t="n">
         <v>3.24176470588235</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>3.11559374999999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="4" t="n">
         <v>2.97594</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
         <v>3.19585263157894</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="4" t="n">
         <v>2.94705882352941</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="n">
         <v>2.80403437499999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="4" t="n">
         <v>2.64528</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>2.92953157894736</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="n">
         <v>2.65235294117647</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>2.49247499999999</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4" t="n">
         <v>2.31462</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>2.66321052631578</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4" t="n">
         <v>2.35764705882352</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="n">
         <v>2.180915625</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="n">
         <v>1.98396</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
         <v>2.39688947368421</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="4" t="n">
         <v>2.06294117647058</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="n">
         <v>1.86935625</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="4" t="n">
         <v>1.6533</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
         <v>2.13056842105263</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="4" t="n">
         <v>1.76823529411764</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="4" t="n">
         <v>1.55779687499999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="n">
         <v>1.32264</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
         <v>1.86424736842105</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="4" t="n">
         <v>1.4735294117647</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="n">
         <v>1.24623749999999</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="n">
         <v>0.991979999999999</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
         <v>1.59792631578947</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="4" t="n">
         <v>1.17882352941176</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="4" t="n">
         <v>0.934678124999999</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="4" t="n">
         <v>0.661319999999999</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
         <v>1.33160526315789</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="4" t="n">
         <v>0.884117647058824</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="4" t="n">
         <v>0.623118749999999</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4" t="n">
         <v>0.330659999999999</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>1.06528421052631</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="4" t="n">
         <v>0.589411764705882</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="4" t="n">
         <v>0.311559374999999</v>
       </c>
-      <c r="E17" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
+      <c r="E17" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
         <v>0.798963157894736</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="4" t="n">
         <v>0.294705882352941</v>
       </c>
-      <c r="D18" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
         <v>0.532642105263158</v>
       </c>
-      <c r="C19" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
         <v>0.266321052631579</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>0.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" s="4">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="4" t="n">
         <v>4.16</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>4.1392</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="4" t="n">
         <v>4.1184</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="4" t="n">
         <v>4.0976</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="4" t="n">
         <v>4.0768</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="4" t="n">
         <v>4.056</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="4" t="n">
         <v>4.0352</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="4" t="n">
         <v>4.0144</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="4" t="n">
         <v>3.9936</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="4" t="n">
         <v>3.9728</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="4" t="n">
         <v>3.952</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="4" t="n">
         <v>3.9312</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="4" t="n">
         <v>3.9104</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="4" t="n">
         <v>3.8896</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="4" t="n">
         <v>3.8688</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="4" t="n">
         <v>3.848</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="4" t="n">
         <v>3.8272</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" s="4">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="4" t="n">
         <v>3.91529411764705</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>3.88049999999999</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="4" t="n">
         <v>3.84384</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="4" t="n">
         <v>3.80491428571428</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="4" t="n">
         <v>3.7632</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="4" t="n">
         <v>3.718</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="4" t="n">
         <v>3.66836363636363</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="4" t="n">
         <v>3.61296</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="4" t="n">
         <v>3.54986666666666</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="4" t="n">
         <v>3.4762</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="4" t="n">
         <v>3.38742857142857</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="4" t="n">
         <v>3.276</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="4" t="n">
         <v>3.12832</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="4" t="n">
         <v>2.9172</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="4" t="n">
         <v>2.5792</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="4" t="n">
         <v>1.924</v>
       </c>
-      <c r="S3" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="4">
+      <c r="S3" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="4" t="n">
         <v>3.67058823529411</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>3.6218</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="4" t="n">
         <v>3.56928</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="4" t="n">
         <v>3.51222857142857</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="4" t="n">
         <v>3.4496</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="4" t="n">
         <v>3.38</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="4" t="n">
         <v>3.30152727272727</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="4" t="n">
         <v>3.21152</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="4" t="n">
         <v>3.10613333333333</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="4" t="n">
         <v>2.9796</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="4" t="n">
         <v>2.82285714285714</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="4" t="n">
         <v>2.6208</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="4" t="n">
         <v>2.34624</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="4" t="n">
         <v>1.9448</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="4" t="n">
         <v>1.2896</v>
       </c>
-      <c r="R4" s="4">
-        <v>0.0</v>
+      <c r="R4" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5">
-      <c r="C5" s="4">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="4" t="n">
         <v>3.42588235294117</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>3.36309999999999</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="4" t="n">
         <v>3.29472</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="4" t="n">
         <v>3.21954285714285</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="4" t="n">
         <v>3.136</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="4" t="n">
         <v>3.042</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="4" t="n">
         <v>2.9346909090909</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="4" t="n">
         <v>2.81008</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="4" t="n">
         <v>2.6624</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="4" t="n">
         <v>2.483</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="4" t="n">
         <v>2.25828571428571</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="4" t="n">
         <v>1.9656</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="4" t="n">
         <v>1.56416</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="4" t="n">
         <v>0.972399999999999</v>
       </c>
-      <c r="Q5" s="4">
-        <v>0.0</v>
+      <c r="Q5" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6">
-      <c r="C6" s="4">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="4" t="n">
         <v>3.18117647058823</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>3.1044</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="4" t="n">
         <v>3.02016</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="4" t="n">
         <v>2.92685714285714</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="4" t="n">
         <v>2.8224</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="4" t="n">
         <v>2.70399999999999</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="4" t="n">
         <v>2.56785454545454</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="4" t="n">
         <v>2.40864</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="4" t="n">
         <v>2.21866666666666</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="4" t="n">
         <v>1.9864</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="4" t="n">
         <v>1.69371428571428</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="4" t="n">
         <v>1.3104</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="4" t="n">
         <v>0.78208</v>
       </c>
-      <c r="P6" s="4">
-        <v>0.0</v>
+      <c r="P6" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7">
-      <c r="C7" s="4">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="4" t="n">
         <v>2.93647058823529</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>2.8457</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="4" t="n">
         <v>2.7456</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="4" t="n">
         <v>2.63417142857142</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="4" t="n">
         <v>2.5088</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="4" t="n">
         <v>2.36599999999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="4" t="n">
         <v>2.20101818181818</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="4" t="n">
         <v>2.0072</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="4" t="n">
         <v>1.77493333333333</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="4" t="n">
         <v>1.4898</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="4" t="n">
         <v>1.12914285714285</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="4" t="n">
         <v>0.6552</v>
       </c>
-      <c r="O7" s="4">
-        <v>0.0</v>
+      <c r="O7" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8">
-      <c r="C8" s="4">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="4" t="n">
         <v>2.69176470588235</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>2.58699999999999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="4" t="n">
         <v>2.47104</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="4" t="n">
         <v>2.34148571428571</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="4" t="n">
         <v>2.1952</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="4" t="n">
         <v>2.028</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="4" t="n">
         <v>1.83418181818181</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="4" t="n">
         <v>1.60576</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="4" t="n">
         <v>1.3312</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="4" t="n">
         <v>0.993199999999999</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="4" t="n">
         <v>0.564571428571428</v>
       </c>
-      <c r="N8" s="4">
-        <v>0.0</v>
+      <c r="N8" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1606,39 +1711,39 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9">
-      <c r="C9" s="4">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="4" t="n">
         <v>2.44705882352941</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="n">
         <v>2.32829999999999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="4" t="n">
         <v>2.19648</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="4" t="n">
         <v>2.0488</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="4" t="n">
         <v>1.8816</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="4" t="n">
         <v>1.69</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="4" t="n">
         <v>1.46734545454545</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="4" t="n">
         <v>1.20432</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="4" t="n">
         <v>0.887466666666666</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="4" t="n">
         <v>0.496599999999999</v>
       </c>
-      <c r="M9" s="4">
-        <v>0.0</v>
+      <c r="M9" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1647,36 +1752,36 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10">
-      <c r="C10" s="4">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="4" t="n">
         <v>2.20235294117647</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>2.0696</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4" t="n">
         <v>1.92192</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="4" t="n">
         <v>1.75611428571428</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="4" t="n">
         <v>1.568</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="4" t="n">
         <v>1.35199999999999</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="4" t="n">
         <v>1.10050909090909</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="4" t="n">
         <v>0.80288</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="4" t="n">
         <v>0.443733333333333</v>
       </c>
-      <c r="L10" s="4">
-        <v>0.0</v>
+      <c r="L10" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1686,1482 +1791,1533 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11">
-      <c r="C11" s="4">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="4" t="n">
         <v>1.95764705882352</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="n">
         <v>1.81089999999999</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="n">
         <v>1.64736</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="4" t="n">
         <v>1.46342857142857</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="4" t="n">
         <v>1.2544</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="4" t="n">
         <v>1.01399999999999</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="4" t="n">
         <v>0.733672727272726</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="4" t="n">
         <v>0.40144</v>
       </c>
-      <c r="K11" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="4">
+      <c r="K11" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="4" t="n">
         <v>1.71294117647058</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="n">
         <v>1.5522</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="4" t="n">
         <v>1.37279999999999</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="4" t="n">
         <v>1.17074285714285</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="4" t="n">
         <v>0.940799999999999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="4" t="n">
         <v>0.675999999999999</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="4" t="n">
         <v>0.366836363636363</v>
       </c>
-      <c r="J12" s="4">
-        <v>0.0</v>
+      <c r="J12" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13">
-      <c r="C13" s="4">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="4" t="n">
         <v>1.46823529411764</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="4" t="n">
         <v>1.29349999999999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="n">
         <v>1.09824</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="4" t="n">
         <v>0.878057142857143</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="4" t="n">
         <v>0.627199999999999</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="4" t="n">
         <v>0.337999999999999</v>
       </c>
-      <c r="I13" s="4">
-        <v>0.0</v>
+      <c r="I13" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14">
-      <c r="C14" s="4">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="4" t="n">
         <v>1.2235294117647</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="n">
         <v>1.03479999999999</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="n">
         <v>0.82368</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="4" t="n">
         <v>0.585371428571428</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="4" t="n">
         <v>0.3136</v>
       </c>
-      <c r="H14" s="4">
-        <v>0.0</v>
+      <c r="H14" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15">
-      <c r="C15" s="4">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="4" t="n">
         <v>0.978823529411764</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="4" t="n">
         <v>0.7761</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="4" t="n">
         <v>0.549119999999999</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="4" t="n">
         <v>0.292685714285714</v>
       </c>
-      <c r="G15" s="4">
-        <v>0.0</v>
+      <c r="G15" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16">
-      <c r="C16" s="4">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="4" t="n">
         <v>0.734117647058823</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="4" t="n">
         <v>0.517399999999999</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4" t="n">
         <v>0.27456</v>
       </c>
-      <c r="F16" s="4">
-        <v>0.0</v>
+      <c r="F16" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17">
-      <c r="C17" s="4">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="4" t="n">
         <v>0.489411764705882</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="4" t="n">
         <v>0.2587</v>
       </c>
-      <c r="E17" s="4">
-        <v>0.0</v>
+      <c r="E17" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18">
-      <c r="C18" s="4">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="4" t="n">
         <v>0.244705882352941</v>
       </c>
-      <c r="D18" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="2">
-        <v>0.0</v>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" s="3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="3">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="2" t="n">
         <v>9.41176470588235</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="3">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2" t="n">
         <v>8.8235294117647</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" s="3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="2" t="n">
         <v>8.23529411764705</v>
       </c>
     </row>
-    <row r="6">
-      <c r="C6" s="3">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2" t="n">
         <v>7.64705882352941</v>
       </c>
     </row>
-    <row r="7">
-      <c r="C7" s="3">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="2" t="n">
         <v>7.05882352941176</v>
       </c>
     </row>
-    <row r="8">
-      <c r="C8" s="3">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="2" t="n">
         <v>6.47058823529411</v>
       </c>
     </row>
-    <row r="9">
-      <c r="C9" s="3">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="2" t="n">
         <v>5.88235294117647</v>
       </c>
     </row>
-    <row r="10">
-      <c r="C10" s="3">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="2" t="n">
         <v>5.29411764705882</v>
       </c>
     </row>
-    <row r="11">
-      <c r="C11" s="3">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="2" t="n">
         <v>4.70588235294117</v>
       </c>
     </row>
-    <row r="12">
-      <c r="C12" s="3">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="2" t="n">
         <v>4.11764705882352</v>
       </c>
     </row>
-    <row r="13">
-      <c r="C13" s="3">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="2" t="n">
         <v>3.52941176470588</v>
       </c>
     </row>
-    <row r="14">
-      <c r="C14" s="3">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="2" t="n">
         <v>2.94117647058823</v>
       </c>
     </row>
-    <row r="15">
-      <c r="C15" s="3">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="2" t="n">
         <v>2.35294117647058</v>
       </c>
     </row>
-    <row r="16">
-      <c r="C16" s="3">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="2" t="n">
         <v>1.76470588235294</v>
       </c>
     </row>
-    <row r="17">
-      <c r="C17" s="3">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="2" t="n">
         <v>1.17647058823529</v>
       </c>
     </row>
-    <row r="18">
-      <c r="C18" s="3">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="2" t="n">
         <v>0.588235294117646</v>
       </c>
     </row>
-    <row r="19">
-      <c r="C19" s="3">
-        <v>0.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" s="4">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="4" t="n">
         <v>8.5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>8.4575</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="4" t="n">
         <v>8.415</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="4" t="n">
         <v>8.3725</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="4" t="n">
         <v>8.33</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="4" t="n">
         <v>8.2875</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="4" t="n">
         <v>8.245</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="4" t="n">
         <v>8.2025</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="4" t="n">
         <v>8.16</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="4" t="n">
         <v>8.1175</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="4" t="n">
         <v>8.075</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="4" t="n">
         <v>8.0325</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="4" t="n">
         <v>7.99</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="4" t="n">
         <v>7.9475</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="D3" s="4">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>7.92890625</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="4" t="n">
         <v>7.85399999999999</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="4" t="n">
         <v>7.77446428571428</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="4" t="n">
         <v>7.68923076923076</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="4" t="n">
         <v>7.596875</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="4" t="n">
         <v>7.49545454545454</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="4" t="n">
         <v>7.38225</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="4" t="n">
         <v>7.25333333333333</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="4" t="n">
         <v>7.1028125</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="4" t="n">
         <v>6.92142857142857</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="4" t="n">
         <v>6.69375</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="4" t="n">
         <v>6.392</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="4" t="n">
         <v>5.960625</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="4" t="n">
         <v>7.5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>7.4003125</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="4" t="n">
         <v>7.29299999999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="4" t="n">
         <v>7.17642857142857</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="4" t="n">
         <v>7.04846153846153</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="4" t="n">
         <v>6.90625</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="4" t="n">
         <v>6.74590909090909</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="4" t="n">
         <v>6.562</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="4" t="n">
         <v>6.34666666666666</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="4" t="n">
         <v>6.088125</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="4" t="n">
         <v>5.76785714285714</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="4" t="n">
         <v>5.355</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="4" t="n">
         <v>4.794</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="4" t="n">
         <v>3.97375</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="D5" s="4">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>6.87171874999999</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="4" t="n">
         <v>6.73199999999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="4" t="n">
         <v>6.57839285714285</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="4" t="n">
         <v>6.4076923076923</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="4" t="n">
         <v>6.21562499999999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="4" t="n">
         <v>5.99636363636363</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="4" t="n">
         <v>5.74175</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="4" t="n">
         <v>5.43999999999999</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="4" t="n">
         <v>5.0734375</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="4" t="n">
         <v>4.61428571428571</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="4" t="n">
         <v>4.01625</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="4" t="n">
         <v>3.19599999999999</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="4" t="n">
         <v>1.98687499999999</v>
       </c>
     </row>
-    <row r="6">
-      <c r="C6" s="4">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="4" t="n">
         <v>6.5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>6.343125</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="4" t="n">
         <v>6.17099999999999</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="4" t="n">
         <v>5.98035714285714</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="4" t="n">
         <v>5.76692307692307</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="4" t="n">
         <v>5.525</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="4" t="n">
         <v>5.24681818181818</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="4" t="n">
         <v>4.9215</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="4" t="n">
         <v>4.53333333333333</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="4" t="n">
         <v>4.05875</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="4" t="n">
         <v>3.46071428571428</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="4" t="n">
         <v>2.6775</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="4" t="n">
         <v>1.59799999999999</v>
       </c>
-      <c r="P6" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="P6" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="n">
         <v>5.81453125</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="4" t="n">
         <v>5.60999999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="4" t="n">
         <v>5.38232142857142</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="4" t="n">
         <v>5.12615384615384</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="4" t="n">
         <v>4.834375</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="4" t="n">
         <v>4.49727272727272</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="4" t="n">
         <v>4.10125</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="4" t="n">
         <v>3.62666666666666</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="4" t="n">
         <v>3.0440625</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="4" t="n">
         <v>2.30714285714285</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="4" t="n">
         <v>1.33875</v>
       </c>
-      <c r="O7" s="4">
-        <v>0.0</v>
+      <c r="O7" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8">
-      <c r="C8" s="4">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="4" t="n">
         <v>5.5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>5.28593749999999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="4" t="n">
         <v>5.04899999999999</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="4" t="n">
         <v>4.78428571428571</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="4" t="n">
         <v>4.48538461538461</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="4" t="n">
         <v>4.14375</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="4" t="n">
         <v>3.74772727272727</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="4" t="n">
         <v>3.281</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="4" t="n">
         <v>2.71999999999999</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="4" t="n">
         <v>2.029375</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="4" t="n">
         <v>1.15357142857142</v>
       </c>
-      <c r="N8" s="4">
-        <v>0.0</v>
+      <c r="N8" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9">
-      <c r="C9" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="D9" s="4">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>4.75734374999999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="4" t="n">
         <v>4.48799999999999</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="4" t="n">
         <v>4.18625</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="4" t="n">
         <v>3.84461538461538</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="4" t="n">
         <v>3.453125</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="4" t="n">
         <v>2.99818181818181</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="4" t="n">
         <v>2.46075</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="4" t="n">
         <v>1.81333333333333</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="4" t="n">
         <v>1.0146875</v>
       </c>
-      <c r="M9" s="4">
-        <v>0.0</v>
+      <c r="M9" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10">
-      <c r="C10" s="4">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="4" t="n">
         <v>4.5</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>4.22875</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4" t="n">
         <v>3.92699999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="4" t="n">
         <v>3.58821428571428</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="4" t="n">
         <v>3.20384615384615</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="4" t="n">
         <v>2.7625</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="4" t="n">
         <v>2.24863636363636</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="4" t="n">
         <v>1.6405</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="4" t="n">
         <v>0.906666666666666</v>
       </c>
-      <c r="L10" s="4">
-        <v>0.0</v>
+      <c r="L10" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11">
-      <c r="C11" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D11" s="4">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="n">
         <v>3.70015625</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="n">
         <v>3.36599999999999</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="4" t="n">
         <v>2.99017857142857</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="4" t="n">
         <v>2.56307692307692</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="4" t="n">
         <v>2.071875</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="4" t="n">
         <v>1.4990909090909</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="4" t="n">
         <v>0.82025</v>
       </c>
-      <c r="K11" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="4">
+      <c r="K11" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="4" t="n">
         <v>3.5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="n">
         <v>3.1715625</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="4" t="n">
         <v>2.80499999999999</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="4" t="n">
         <v>2.39214285714285</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="4" t="n">
         <v>1.92230769230769</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="4" t="n">
         <v>1.38125</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="4" t="n">
         <v>0.749545454545454</v>
       </c>
-      <c r="J12" s="4">
-        <v>0.0</v>
+      <c r="J12" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13">
-      <c r="C13" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="D13" s="4">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="n">
         <v>2.64296874999999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="n">
         <v>2.24399999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="4" t="n">
         <v>1.79410714285714</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="4" t="n">
         <v>1.28153846153846</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="4" t="n">
         <v>0.690625</v>
       </c>
-      <c r="I13" s="4">
-        <v>0.0</v>
+      <c r="I13" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14">
-      <c r="C14" s="4">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="4" t="n">
         <v>2.5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="n">
         <v>2.114375</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="n">
         <v>1.68299999999999</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="4" t="n">
         <v>1.19607142857142</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="4" t="n">
         <v>0.640769230769231</v>
       </c>
-      <c r="H14" s="4">
-        <v>0.0</v>
+      <c r="H14" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15">
-      <c r="C15" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="4">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="n">
         <v>1.58578125</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="4" t="n">
         <v>1.12199999999999</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="4" t="n">
         <v>0.598035714285714</v>
       </c>
-      <c r="G15" s="4">
-        <v>0.0</v>
+      <c r="G15" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16">
-      <c r="C16" s="4">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="4" t="n">
         <v>1.05718749999999</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4" t="n">
         <v>0.560999999999999</v>
       </c>
-      <c r="F16" s="4">
-        <v>0.0</v>
+      <c r="F16" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17">
-      <c r="C17" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="4">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4" t="n">
         <v>0.528593749999999</v>
       </c>
-      <c r="E17" s="4">
-        <v>0.0</v>
+      <c r="E17" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18">
-      <c r="C18" s="4">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="D18" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="2">
-        <v>0.0</v>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="D2" s="4">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="n">
         <v>6.965</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="4" t="n">
         <v>6.93</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="4" t="n">
         <v>6.895</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="4" t="n">
         <v>6.86</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="4" t="n">
         <v>6.825</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="4" t="n">
         <v>6.79</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="4" t="n">
         <v>6.755</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="4" t="n">
         <v>6.72</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="4" t="n">
         <v>6.685</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="4" t="n">
         <v>6.65</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="4" t="n">
         <v>6.615</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="4" t="n">
         <v>6.58</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="4" t="n">
         <v>6.545</v>
       </c>
     </row>
-    <row r="3">
-      <c r="C3" s="4">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="4" t="n">
         <v>6.58823529411764</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>6.5296875</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="4" t="n">
         <v>6.468</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="4" t="n">
         <v>6.4025</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="4" t="n">
         <v>6.33230769230769</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="4" t="n">
         <v>6.25625</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="4" t="n">
         <v>6.17272727272727</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="4" t="n">
         <v>6.07949999999999</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="4" t="n">
         <v>5.97333333333333</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="4" t="n">
         <v>5.84937499999999</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="4" t="n">
         <v>5.7</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="4" t="n">
         <v>5.5125</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="4" t="n">
         <v>5.264</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="4" t="n">
         <v>4.90874999999999</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" s="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="4" t="n">
         <v>6.17647058823529</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>6.09437499999999</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="4" t="n">
         <v>6.006</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="4" t="n">
         <v>5.90999999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="4" t="n">
         <v>5.80461538461538</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="4" t="n">
         <v>5.6875</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="4" t="n">
         <v>5.55545454545454</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="4" t="n">
         <v>5.404</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="4" t="n">
         <v>5.22666666666666</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="4" t="n">
         <v>5.01375</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="4" t="n">
         <v>4.75</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="4" t="n">
         <v>4.41</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="4" t="n">
         <v>3.948</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="4" t="n">
         <v>3.2725</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" s="4">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="4" t="n">
         <v>5.76470588235294</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="4" t="n">
         <v>5.6590625</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="4" t="n">
         <v>5.544</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="4" t="n">
         <v>5.41749999999999</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="4" t="n">
         <v>5.27692307692307</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="4" t="n">
         <v>5.11875</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="4" t="n">
         <v>4.93818181818181</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="4" t="n">
         <v>4.7285</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="4" t="n">
         <v>4.48</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="4" t="n">
         <v>4.178125</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="4" t="n">
         <v>3.8</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="4" t="n">
         <v>3.3075</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="4" t="n">
         <v>2.63199999999999</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="4" t="n">
         <v>1.63625</v>
       </c>
     </row>
-    <row r="6">
-      <c r="C6" s="4">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="4" t="n">
         <v>5.35294117647058</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="4" t="n">
         <v>5.22375</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="4" t="n">
         <v>5.082</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="4" t="n">
         <v>4.925</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="4" t="n">
         <v>4.74923076923077</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="4" t="n">
         <v>4.55</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="4" t="n">
         <v>4.32090909090909</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="4" t="n">
         <v>4.053</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="4" t="n">
         <v>3.73333333333333</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="4" t="n">
         <v>3.3425</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="4" t="n">
         <v>2.85</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="4" t="n">
         <v>2.205</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="4" t="n">
         <v>1.31599999999999</v>
       </c>
-      <c r="P6" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" s="4">
+      <c r="P6" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="4" t="n">
         <v>4.94117647058823</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>4.7884375</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="4" t="n">
         <v>4.62</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="4" t="n">
         <v>4.43249999999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="4" t="n">
         <v>4.22153846153846</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="4" t="n">
         <v>3.98125</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="4" t="n">
         <v>3.70363636363636</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="4" t="n">
         <v>3.3775</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="4" t="n">
         <v>2.98666666666666</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="4" t="n">
         <v>2.506875</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="4" t="n">
         <v>1.9</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="4" t="n">
         <v>1.1025</v>
       </c>
-      <c r="O7" s="4">
-        <v>0.0</v>
+      <c r="O7" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="P7" s="4"/>
     </row>
-    <row r="8">
-      <c r="C8" s="4">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="4" t="n">
         <v>4.52941176470588</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>4.353125</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="4" t="n">
         <v>4.15799999999999</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="4" t="n">
         <v>3.93999999999999</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="4" t="n">
         <v>3.69384615384615</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="4" t="n">
         <v>3.4125</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="4" t="n">
         <v>3.08636363636363</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="4" t="n">
         <v>2.702</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="4" t="n">
         <v>2.24</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="4" t="n">
         <v>1.67124999999999</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="N8" s="4">
-        <v>0.0</v>
+      <c r="N8" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9">
-      <c r="C9" s="4">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="4" t="n">
         <v>4.11764705882352</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="n">
         <v>3.9178125</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="4" t="n">
         <v>3.69599999999999</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="4" t="n">
         <v>3.4475</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="4" t="n">
         <v>3.16615384615384</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="4" t="n">
         <v>2.84375</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="4" t="n">
         <v>2.4690909090909</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="4" t="n">
         <v>2.02649999999999</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="4" t="n">
         <v>1.49333333333333</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="4" t="n">
         <v>0.835625</v>
       </c>
-      <c r="M9" s="4">
-        <v>0.0</v>
+      <c r="M9" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10">
-      <c r="C10" s="4">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="4" t="n">
         <v>3.70588235294117</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>3.4825</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4" t="n">
         <v>3.234</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="4" t="n">
         <v>2.95499999999999</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="4" t="n">
         <v>2.63846153846153</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="4" t="n">
         <v>2.275</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="4" t="n">
         <v>1.85181818181818</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="4" t="n">
         <v>1.351</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="4" t="n">
         <v>0.746666666666667</v>
       </c>
-      <c r="L10" s="4">
-        <v>0.0</v>
+      <c r="L10" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11">
-      <c r="C11" s="4">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="4" t="n">
         <v>3.29411764705882</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="n">
         <v>3.04718749999999</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="n">
         <v>2.772</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="4" t="n">
         <v>2.46249999999999</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="4" t="n">
         <v>2.11076923076923</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="4" t="n">
         <v>1.70625</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="4" t="n">
         <v>1.23454545454545</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="4" t="n">
         <v>0.6755</v>
       </c>
-      <c r="K11" s="4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="4">
+      <c r="K11" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="4" t="n">
         <v>2.88235294117647</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="n">
         <v>2.61187499999999</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="4" t="n">
         <v>2.31</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="4" t="n">
         <v>1.96999999999999</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="4" t="n">
         <v>1.58307692307692</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="4" t="n">
         <v>1.1375</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="4" t="n">
         <v>0.617272727272727</v>
       </c>
-      <c r="J12" s="4">
-        <v>0.0</v>
+      <c r="J12" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13">
-      <c r="C13" s="4">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="4" t="n">
         <v>2.47058823529411</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="4" t="n">
         <v>2.1765625</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="n">
         <v>1.84799999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="4" t="n">
         <v>1.4775</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="4" t="n">
         <v>1.05538461538461</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="4" t="n">
         <v>0.56875</v>
       </c>
-      <c r="I13" s="4">
-        <v>0.0</v>
+      <c r="I13" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14">
-      <c r="C14" s="4">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="4" t="n">
         <v>2.05882352941176</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="n">
         <v>1.74125</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="n">
         <v>1.386</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="4" t="n">
         <v>0.984999999999999</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="4" t="n">
         <v>0.527692307692308</v>
       </c>
-      <c r="H14" s="4">
-        <v>0.0</v>
+      <c r="H14" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
     </row>
-    <row r="15">
-      <c r="C15" s="4">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="4" t="n">
         <v>1.64705882352941</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="4" t="n">
         <v>1.30593749999999</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="4" t="n">
         <v>0.924</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="4" t="n">
         <v>0.492499999999999</v>
       </c>
-      <c r="G15" s="4">
-        <v>0.0</v>
+      <c r="G15" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16">
-      <c r="C16" s="4">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="4" t="n">
         <v>1.23529411764705</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="4" t="n">
         <v>0.870625</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4" t="n">
         <v>0.461999999999999</v>
       </c>
-      <c r="F16" s="4">
-        <v>0.0</v>
+      <c r="F16" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17">
-      <c r="C17" s="4">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="4" t="n">
         <v>0.823529411764706</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="4" t="n">
         <v>0.4353125</v>
       </c>
-      <c r="E17" s="4">
-        <v>0.0</v>
+      <c r="E17" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18">
-      <c r="C18" s="4">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="4" t="n">
         <v>0.411764705882353</v>
       </c>
-      <c r="D18" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" s="2">
-        <v>0.0</v>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>